--- a/Changing-BCI/BS32,BCI-variable/32-10s/Experimental Results BCI=60s,BS-variable.xlsx
+++ b/Changing-BCI/BS32,BCI-variable/32-10s/Experimental Results BCI=60s,BS-variable.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Multichain2023\Multichain_v2.3.1_results\Changing BCI\32mb\32-10s\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2203C54B-D9B0-4CF6-A875-103967A98278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="32-60sresults-2.3.1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="32-50sresults-2.3.1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="32-40sresults-2.3.1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="32-30sresults-2.3.1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="32-20sresults-2.3.1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="32-10sresults-2.3.1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="32-60sresults-2.3.1" sheetId="1" r:id="rId1"/>
+    <sheet name="32-50sresults-2.3.1" sheetId="2" r:id="rId2"/>
+    <sheet name="32-40sresults-2.3.1" sheetId="3" r:id="rId3"/>
+    <sheet name="32-30sresults-2.3.1" sheetId="4" r:id="rId4"/>
+    <sheet name="32-20sresults-2.3.1" sheetId="5" r:id="rId5"/>
+    <sheet name="32-10sresults-2.3.1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -27,107 +43,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="19">
   <si>
-    <t xml:space="preserve">BCI= 20s</t>
+    <t>BCI= 20s</t>
   </si>
   <si>
-    <t xml:space="preserve">Throughput</t>
+    <t>Throughput</t>
   </si>
   <si>
-    <t xml:space="preserve">BCI= 5s</t>
+    <t>BCI= 5s</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Num of Samples</t>
+    <t>Total Num of Samples</t>
   </si>
   <si>
-    <t xml:space="preserve">Mining Time</t>
+    <t>Mining Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg. Latency</t>
+    <t>Avg. Latency</t>
   </si>
   <si>
-    <t xml:space="preserve">ITR</t>
+    <t>ITR</t>
   </si>
   <si>
-    <t xml:space="preserve">Node1</t>
+    <t>Node1</t>
   </si>
   <si>
-    <t xml:space="preserve">Node2</t>
+    <t>Node2</t>
   </si>
   <si>
-    <t xml:space="preserve">Node3</t>
+    <t>Node3</t>
   </si>
   <si>
-    <t xml:space="preserve">Node4</t>
+    <t>Node4</t>
   </si>
   <si>
-    <t xml:space="preserve">Node5</t>
+    <t>Node5</t>
   </si>
   <si>
-    <t xml:space="preserve">15min</t>
+    <t>15min</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">STD</t>
+    <t>STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Max. Latency</t>
+    <t>Max. Latency</t>
   </si>
   <si>
-    <t xml:space="preserve">10min</t>
+    <t>10min</t>
   </si>
   <si>
-    <t xml:space="preserve">8min</t>
+    <t>8min</t>
   </si>
   <si>
-    <t xml:space="preserve">5min</t>
+    <t>5min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="m\-d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -140,143 +136,411 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -333,55 +597,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>27.2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>37.5</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3">
         <v>26.4</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>28.5</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>29.5</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
         <v>29.82</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>8174</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>11695</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>7998</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>8559</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>8840</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
-        <v>9053.2</v>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
+        <v>9053.2000000000007</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -390,53 +654,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>27.1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>42.4</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>28.6</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
-        <v>30.42</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>30.419999999999998</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>8126</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>12720</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>8571</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>9613</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>6784</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
-        <v>9162.8</v>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
+        <v>9162.7999999999993</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -445,53 +709,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>27.2</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>36.9</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>23.2</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5">
         <v>25.1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>24.5</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
-        <v>27.38</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>27.380000000000003</v>
+      </c>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>8150</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>11073</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>6974</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>7524</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>7337</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
         <v>8211.6</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -500,53 +764,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>13.2</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>30.9</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>21.6</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>24.4</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>25.2</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>23.06</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>3952</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>9319</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>6710</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>7734</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>7597</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N12" si="1">SUM(I6,J6,K6,L6,M6)/5</f>
         <v>7062.4</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -555,53 +819,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>20.9</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>26.9</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>22.5</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>22.5</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>24.3</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>23.42</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>23.419999999999998</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>6465</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>8058</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>6741</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>6736</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>7279</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>7055.8</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -610,53 +874,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>24.1</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>25.1</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>22.7</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>22.3</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>23.04</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>7698</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>7915</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>6816</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>6734</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>6708</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>7174.2</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -665,53 +929,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>26.3</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>29.4</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>26.5</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>23.8</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>20.8</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>25.36</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>7896</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>8942</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>8002</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>7149</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>6249</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>7647.6</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -720,53 +984,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>28.2</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>22.7</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>21.3</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>21.9</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>22.82</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>5996</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>8892</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>6808</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>6386</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>6582</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>6932.8</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -775,33 +1039,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="e">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="B11" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32.64</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15.78</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>16.222000000000001</v>
+      </c>
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,J11,K11,L11,M11)/5</f>
-        <v>0</v>
+      <c r="I11" s="2">
+        <v>3760</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9794</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2547</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3779</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4783</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>4932.6000000000004</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -810,53 +1094,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>23.6</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>22.8</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>22.4</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>24.4</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
-        <v>22.52</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="F12" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>22.520000000000003</v>
+      </c>
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>7622</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>6832</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>6718</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>7309</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>5813</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
         <v>6858.8</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -865,95 +1149,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="e">
-        <f aca="false">AVERAGE(G3:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="2">AVERAGE(G3:G12)</f>
+        <v>24.406200000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
-        <v>7119.88888888889</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
-        <v>9494</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
-        <v>7259.77777777778</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
-        <v>7527.11111111111</v>
-      </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
-        <v>7021</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
-        <v>6915.92</v>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>6783.9</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>9524</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>6788.5</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>7152.3</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>6797.2</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>7409.18</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="e">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>1418.6587366633</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>1939.20189768884</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>721.351990670605</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>1012.79914648024</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>880.984108823763</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>2577.07427254672</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="3">STDEV(G3:G12)</f>
+        <v>4.1222229655584828</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>1708.1734526810917</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1830.7567348564423</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>1638.1573828881983</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>1522.0454110614887</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>1091.2196845731855</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>1222.1275054410432</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,8 +1257,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -983,8 +1267,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -993,9 +1277,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -1004,8 +1288,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -1014,8 +1298,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -1024,8 +1308,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -1034,8 +1318,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -1044,8 +1328,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -1054,8 +1338,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -1064,8 +1348,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -1081,72 +1365,64 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1203,55 +1479,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>36.5</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>34.6</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>22.4</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>15.8</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
-        <v>27.66</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
+        <v>27.660000000000004</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>10934</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>10388</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3">
         <v>7121</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>9345</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>4997</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
         <v>8557</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -1260,53 +1536,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="B4" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F4" s="2">
         <v>23.9</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>34.14</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>9964</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>11750</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4">
         <v>11304</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>11070</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>7160</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
         <v>10249.6</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -1315,53 +1591,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5">
         <v>19.5</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>28.4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>33.4</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>27.6</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>27.2</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>27.22</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5">
         <v>5855</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>9542</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="5">
         <v>10008</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>8283</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>8161</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
-        <v>8369.8</v>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
+        <v>8369.7999999999993</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -1370,53 +1646,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>25.5</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>39.6</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>20.3</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>21.6</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>23.4</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>26.08</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>26.080000000000002</v>
+      </c>
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>8187</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>11894</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>6103</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>6645</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>7298</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N12" si="1">SUM(I6,J6,K6,L6,M6)/5</f>
         <v>8025.4</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -1425,53 +1701,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>11.3</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>23.5</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E7" s="2">
         <v>18.3</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>21.8</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>3373</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>7047</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>5285</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>5490</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>6553</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>5549.6</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1480,53 +1756,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>17.5</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>29.3</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>22.2</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>20.5</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>13.2</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>20.54</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>5823</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>9018</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>6653</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>6601</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>3973</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>6413.6</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1535,53 +1811,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>22.1</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>30.8</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>19.5</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>18.7</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>22.42</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>6642</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>9326</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>6135</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>6354</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>5598</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>6811</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1590,53 +1866,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>25.6</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>27.9</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E10" s="2">
         <v>20.5</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="F10" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>22.74</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>7689</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>8374</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>5883</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>6165</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>6043</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>6830.8</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -1645,53 +1921,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>23.2</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>22.3</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>21.1</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
         <v>21.72</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>5299</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>7415</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>6688</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>7502</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>6509</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,J11,K11,L11,M11)/5</f>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
         <v>6682.6</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -1700,53 +1976,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>21.8</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>23.4</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>18.7</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F12" s="2">
         <v>21.6</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
         <v>20.48</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>7039</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>7021</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>6278</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>5245</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>6480</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
         <v>6412.6</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -1755,95 +2031,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="2">AVERAGE(G3:G12)</f>
         <v>24.15</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
         <v>7080.5</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>9177.5</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
         <v>7145.8</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
         <v>7270</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
         <v>6277.2</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
         <v>7390.2</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>4.64972400614631</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>2234.95236091411</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>1782.1439179944</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>1939.51109532503</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>1825.52610377271</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>1202.10036556391</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>1388.32601998874</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="3">STDEV(G3:G12)</f>
+        <v>4.6497240061463101</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>2234.9523609141106</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1782.1439179944039</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>1939.5110953250285</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>1825.5261037727057</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>1202.1003655639122</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>1388.3260199887413</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1863,8 +2139,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -1873,8 +2149,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -1883,9 +2159,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -1894,8 +2170,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -1904,8 +2180,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -1914,8 +2190,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -1924,8 +2200,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -1934,8 +2210,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -1944,8 +2220,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -1954,8 +2230,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -1971,72 +2247,64 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:U1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2093,55 +2361,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C3">
         <v>22.8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>28.5</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>20.2</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
         <v>20.32</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>5629</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>7677</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>4749</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>8547</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>8129</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
         <v>6946.2</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -2150,53 +2418,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C4" s="2">
         <v>35.4</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>16.7</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>14.4</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>16.2</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>20.12</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>5669</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>10630</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>5015</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>4450</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>5021</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
         <v>6157</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -2205,53 +2473,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>17.8</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>39.4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>17.5</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>20.05</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>22.95</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>5709</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>12182</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>5559</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>6220</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>6701</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
         <v>7274.2</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -2260,53 +2528,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>12.3</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>61.2</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <v>26.7</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>16.2</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>26.9</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>4075</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>18375</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>6181</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>8529</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>5205</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N12" si="1">SUM(I6,J6,K6,L6,M6)/5</f>
         <v>8473</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -2315,53 +2583,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>76.1</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D7" s="2">
         <v>7.9</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>33.5</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>27.7</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>3015</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>23022</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>2546</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>10280</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>3550</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>8482.6</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -2370,53 +2638,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>15.5</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>65.1</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" s="2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D8" s="2">
         <v>9.1</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>23.3</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
-        <v>24.44</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F8" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>24.439999999999998</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>4799</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>19519</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>2865</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>6972</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>3150</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>7461</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -2425,53 +2693,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>24.7</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="C9" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E9" s="2">
         <v>22.2</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>14.5</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>22.14</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>7412</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>9655</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>5132</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>6670</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>4781</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>6730</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -2480,53 +2748,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>31.9</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>30.8</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>20.2</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>25.1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>14.9</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
-        <v>24.58</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>24.580000000000002</v>
+      </c>
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>9586</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>9245</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>6051</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>7533</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>4476</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>7378.2</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -2535,53 +2803,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>28.9</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>14.8</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>19.8</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>20.2</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
         <v>20.94</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>6390</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>8672</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>4784</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>5937</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>6513</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,J11,K11,L11,M11)/5</f>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
         <v>6459.2</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -2590,53 +2858,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>11.9</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>29.5</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>24.6</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>22.9</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>8.4</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
         <v>19.46</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>3665</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>8852</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>7368</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>7018</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>2815</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
         <v>5943.6</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -2645,95 +2913,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G12)</f>
-        <v>22.955</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="2">AVERAGE(G3:G12)</f>
+        <v>22.955000000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
         <v>5594.9</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>12782.9</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
         <v>5025</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
         <v>7215.6</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
-        <v>5034.1</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>5034.1000000000004</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
         <v>7130.5</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>2.88374467200779</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>1920.83716991663</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>5448.79229126357</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>1457.57271592954</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>1621.37055878318</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>1687.39809239617</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>870.705983032671</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="3">STDEV(G3:G12)</f>
+        <v>2.883744672007797</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>1920.8371699166305</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>5448.792291263574</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>1457.5727159295423</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>1621.3705587831814</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>1687.3980923961669</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>870.70598303266706</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2753,8 +3021,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -2763,8 +3031,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -2773,9 +3041,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -2784,8 +3052,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -2794,8 +3062,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -2804,8 +3072,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -2814,8 +3082,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -2824,8 +3092,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -2834,8 +3102,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -2844,8 +3112,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -2854,7 +3122,6 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
@@ -2862,72 +3129,64 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2984,55 +3243,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>13.2</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D3">
         <v>10.6</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>12.4</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="F3" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
         <v>21.84</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>3946</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>9802</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>3235</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>3756</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>12107</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
         <v>6569.2</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -3041,53 +3300,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>12.1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>35.5</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>17.5</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>23.3</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>21.06</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>4169</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>10840</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>5795</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>5265</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>7265</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
         <v>6666.8</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -3096,53 +3355,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C5" s="2">
         <v>36.1</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>14.4</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F5" s="2">
         <v>16.3</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>20.66</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>6130</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>10840</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>4316</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>4839</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>4898</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
         <v>6204.6</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -3151,53 +3410,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>23.3</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>19.8</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>12.3</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>14.5</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>16.3</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>17.24</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>17.240000000000002</v>
+      </c>
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>7478</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>6349</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>4205</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>4753</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>4879</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N12" si="1">SUM(I6,J6,K6,L6,M6)/5</f>
         <v>5532.8</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -3206,53 +3465,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>23.4</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>11.8</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>17.44</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>17.440000000000001</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>5684</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>7015</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>3741</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>7111</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>3517</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>5413.6</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -3261,53 +3520,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8">
         <v>11.4</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>30.2</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E8" s="2">
         <v>14.5</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>15.1</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
-        <v>16.28</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>16.279999999999998</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>3240</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>9044</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>3138</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>4401</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>4663</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>4897.2</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -3316,53 +3575,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>10.7</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>20.9</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>27.55</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="F9" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>17.75</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>3209</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>6270</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>3103</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>8257</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>5881</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>5344</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -3371,53 +3630,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>13.3</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>22.9</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>11.9</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>14.9</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>14.6</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>4362</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>6867</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>3742</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>4960</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>3354</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>4657</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -3426,53 +3685,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>10.7</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>10.4</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>25.7</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>14.5</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
         <v>17.86</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>3249</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>8389</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>3198</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>8079</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>4458</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,J11,K11,L11,M11)/5</f>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
         <v>5474.6</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -3481,53 +3740,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>15.9</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>26.1</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E12" s="2">
         <v>18.7</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>9.6</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
-        <v>17.74</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>17.739999999999998</v>
+      </c>
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>4767</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>7843</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>5510</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>5607</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>2872</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
         <v>5319.8</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -3536,95 +3795,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G12)</f>
-        <v>18.247</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="2">AVERAGE(G3:G12)</f>
+        <v>18.247000000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
-        <v>4623.4</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>4623.3999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>8325.9</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
         <v>3998.3</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
         <v>5702.8</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
         <v>5389.4</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
         <v>5607.96</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>2.26406738219319</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>1418.1778763219</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>1749.75607506367</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>974.89054086429</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>1564.85262351869</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>2682.63714364139</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>668.707647797019</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="3">STDEV(G3:G12)</f>
+        <v>2.2640673821931592</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>1418.1778763218983</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>1749.7560750636701</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>974.89054086428905</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>1564.852623518693</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>2682.637143641391</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>668.70764779702404</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3644,8 +3903,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -3654,8 +3913,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -3664,9 +3923,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -3675,8 +3934,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -3685,8 +3944,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -3695,8 +3954,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -3705,8 +3964,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -3715,8 +3974,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -3725,8 +3984,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -3735,8 +3994,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -3752,72 +4011,64 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3874,55 +4125,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>11.2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>26.2</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="D3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F3" s="2">
         <v>12.5</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
         <v>20.2</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>3548</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>7860</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>6039</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>9664</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>3755</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
         <v>6173.2</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -3931,53 +4182,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>16.5</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>25.7</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>21.3</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
-        <v>17.76</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="E4" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>17.759999999999998</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>4951</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>7705</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>6400</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>4841</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4">
         <v>2771</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
         <v>5333.6</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -3986,53 +4237,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C5" s="2">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>13.3</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>11.4</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
-        <v>15.56</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>15.560000000000002</v>
+      </c>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>5741</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>7790</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>2692</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>4305</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>3406</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
         <v>4786.8</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -4041,53 +4292,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>11.9</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>29.5</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>14.5</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>13.6</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>10.6</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>16.02</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>3633</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>8870</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>4423</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>4246</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>3186</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
-        <v>4871.6</v>
+      <c r="N6" s="4">
+        <f>SUM(I6,J6,K6,L6,M6)/5</f>
+        <v>4871.6000000000004</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -4096,53 +4347,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>11.7</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>25.1</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>11.7</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>21.9</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>12.9</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>16.66</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>16.660000000000004</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>3525</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>7531</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>3521</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>6562</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>3861</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f>SUM(I7,J7,K7,L7,M7)/5</f>
         <v>5000</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -4151,53 +4402,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>12.7</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>25.2</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>11.8</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>14.5</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="F8" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>16.22</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>3803</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>7546</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>3550</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>4350</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>5068</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
-        <v>4863.4</v>
+      <c r="N8" s="4">
+        <f>SUM(I8,J8,K8,L8,M8)/5</f>
+        <v>4863.3999999999996</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -4206,53 +4457,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>19.3</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>19.8</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>11.4</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>11.2</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>10.4</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
-        <v>14.42</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>5802</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>5989</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>3489</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>3415</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>3184</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f>SUM(I9,J9,K9,L9,M9)/5</f>
         <v>4375.8</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -4261,53 +4512,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>14.2</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>27.5</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>8.4</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>15.8</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>9.4</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
-        <v>15.06</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>15.060000000000002</v>
+      </c>
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>4271</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>8251</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>2517</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>4887</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>2834</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f>SUM(I10,J10,K10,L10,M10)/5</f>
         <v>4552</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -4316,53 +4567,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>15.9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>28.1</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>10.8</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>10.3</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>8.5</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>14.72</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>14.719999999999999</v>
+      </c>
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>5354</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11">
         <v>8418</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11">
         <v>3297</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>3367</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>2651</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,L11,M11,E11,F11)/5</f>
+      <c r="N11" s="4">
+        <f>SUM(I11,L11,M11,E11,F11)/5</f>
         <v>2278.16</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -4371,53 +4622,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>12.2</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>17.3</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>10.6</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>25.9</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>8.4</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
         <v>14.88</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>3661</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>5248</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>3189</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>7777</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>2542</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
-        <v>4483.4</v>
+      <c r="N12" s="4">
+        <f>SUM(I12,J12,K12,L12,M12)/5</f>
+        <v>4483.3999999999996</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -4426,95 +4677,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G12)</f>
-        <v>16.15</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="1">AVERAGE(G3:G12)</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
-        <v>4428.9</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>4428.8999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
         <v>7520.8</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
         <v>3911.7</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
         <v>5341.4</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
         <v>3325.8</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
-        <v>4671.796</v>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>4671.7960000000003</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>1.74685113529713</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>940.935639551281</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>1100.1376479534</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>1323.867486655</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>2039.3336166503</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>758.021078569426</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>986.392252911814</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="2">STDEV(G3:G12)</f>
+        <v>1.7468511352971812</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>940.93563955128116</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>1100.1376479534038</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>1323.8674866549979</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>2039.3336166503011</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>758.02107856942541</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="2"/>
+        <v>986.39225291181526</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -4534,8 +4785,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -4544,8 +4795,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -4554,9 +4805,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -4565,8 +4816,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -4575,8 +4826,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -4585,8 +4836,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -4595,8 +4846,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -4605,8 +4856,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -4615,8 +4866,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -4625,8 +4876,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -4642,72 +4893,64 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="7.57"/>
+    <col min="1" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4764,53 +5007,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>8.4</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>15.2</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E3" s="2">
         <v>23.5</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>14.9</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
-        <v>14.06</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
+        <v>14.060000000000002</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3">
         <v>2563</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>4616</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>2513</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3">
         <v>7051</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>4459</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <f aca="false">SUM(I3:M3)/5</f>
-        <v>4240.4</v>
+      <c r="N3" s="4">
+        <f>SUM(I3:M3)/5</f>
+        <v>4240.3999999999996</v>
       </c>
       <c r="O3" s="4"/>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2"/>
@@ -4819,53 +5062,53 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>9.1</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D4" s="2">
         <v>6.8</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>10.7</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>7.8</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>14.02</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>2851</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>10712</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>2122</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2">
         <v>3279</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>2416</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <f aca="false">SUM(I4:M4)/5</f>
+      <c r="N4" s="4">
+        <f>SUM(I4:M4)/5</f>
         <v>4276</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2"/>
@@ -4874,53 +5117,53 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C5" s="2">
         <v>14.6</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>7.8</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>17.7</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>12.9</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>12.26</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>2506</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>4375</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>2393</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>5299</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>3911</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">SUM(I5:M5)/5</f>
+      <c r="N5" s="4">
+        <f>SUM(I5:M5)/5</f>
         <v>3696.8</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2"/>
@@ -4929,53 +5172,53 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>5.7</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>15.5</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>8.5</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>13.2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>10.3</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>10.64</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>1751</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>4629</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>2567</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>3987</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>3101</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">SUM(I6,J6,K6,L6,M6)/5</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N12" si="1">SUM(I6,J6,K6,L6,M6)/5</f>
         <v>3207</v>
       </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>4</v>
       </c>
       <c r="Q6" s="2"/>
@@ -4984,53 +5227,53 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>7.4</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>13.8</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>5.2</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F7" s="2">
         <v>8.1</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>14.04</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>2329</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>4268</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>1663</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>10942</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>2497</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">SUM(I7,J7,K7,L7,M7)/5</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>4339.8</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>5</v>
       </c>
       <c r="Q7" s="2"/>
@@ -5039,53 +5282,53 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>30.2</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>15.5</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>7.3</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>12.4</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>11.9</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
-        <v>15.46</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>15.460000000000003</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>9051</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>4704</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>2194</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>3707</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>3564</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">SUM(I8,J8,K8,L8,M8)/5</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>4644</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2"/>
@@ -5094,53 +5337,53 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C9" s="2">
         <v>21.9</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>16.8</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>2790</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>6561</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>4501</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>5028</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="2">
         <v>2404</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">SUM(I9,J9,K9,L9,M9)/5</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>4256.8</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2"/>
@@ -5149,53 +5392,53 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C10" s="2">
         <v>10.9</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>12.4</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>28.4</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>6.8</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>13.34</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>2491</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>3305</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>3777</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2">
         <v>8523</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="2">
         <v>2046</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">SUM(I10,J10,K10,L10,M10)/5</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>4028.4</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>8</v>
       </c>
       <c r="Q10" s="2"/>
@@ -5204,53 +5447,53 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>12.1</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>32.6</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>8.4</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>11.4</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="F11" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
         <v>14.66</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>3760</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>9794</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>2547</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>3479</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="2">
         <v>2783</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <f aca="false">SUM(I11,J11,K11,L11,M11)/5</f>
-        <v>4472.6</v>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>4472.6000000000004</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
       <c r="Q11" s="2"/>
@@ -5259,53 +5502,53 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>17.2</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>13.4</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>17.5</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>15.5</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>8.6</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
-        <v>14.44</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>14.440000000000001</v>
+      </c>
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>5146</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>4015</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>5254</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>4650</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="2">
         <v>2623</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false">SUM(I12,J12,K12,L12,M12)/5</f>
-        <v>4337.6</v>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>4337.6000000000004</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>10</v>
       </c>
       <c r="Q12" s="2"/>
@@ -5314,95 +5557,95 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">AVERAGE(G3:G12)</f>
-        <v>13.712</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">AVERAGE(H3:H12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:N13" si="2">AVERAGE(G3:G12)</f>
+        <v>13.712000000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">AVERAGE(I3:I12)</f>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
         <v>3523.8</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">AVERAGE(J3:J12)</f>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
         <v>5697.9</v>
       </c>
-      <c r="K13" s="4" t="n">
-        <f aca="false">AVERAGE(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
         <v>2953.1</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <f aca="false">AVERAGE(L3:L12)</f>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
         <v>5594.5</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <f aca="false">AVERAGE(M3:M12)</f>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
         <v>2980.4</v>
       </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">AVERAGE(N3:N12)</f>
-        <v>4149.94</v>
+      <c r="N13" s="4">
+        <f t="shared" si="2"/>
+        <v>4149.9400000000005</v>
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">STDEV(G3:G12)</f>
-        <v>1.36340097631703</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">STDEV(H3:H12)</f>
-        <v>3.02765035409749</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">STDEV(I3:I12)</f>
-        <v>2155.7283275548</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">STDEV(J3:J12)</f>
-        <v>2545.53790211639</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <f aca="false">STDEV(K3:K12)</f>
-        <v>1160.53890259846</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <f aca="false">STDEV(L3:L12)</f>
-        <v>2507.26004723173</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <f aca="false">STDEV(M3:M12)</f>
-        <v>769.680482047222</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">STDEV(N3:N12)</f>
-        <v>416.89390123734</v>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:N14" si="3">STDEV(G3:G12)</f>
+        <v>1.3634009763170274</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>2155.7283275548016</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>2545.5379021163894</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>1160.5389025984632</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>2507.2600472317276</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>769.68048204722265</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="3"/>
+        <v>416.89390123733995</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="P16" s="2" t="s">
         <v>6</v>
       </c>
@@ -5422,8 +5665,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="2" t="n">
+    <row r="17" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2"/>
@@ -5432,8 +5675,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="2" t="n">
+    <row r="18" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="2"/>
@@ -5442,9 +5685,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
       <c r="Q19" s="2"/>
@@ -5453,8 +5696,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="2" t="n">
+    <row r="20" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
         <v>4</v>
       </c>
       <c r="Q20" s="2"/>
@@ -5463,8 +5706,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P21" s="2" t="n">
+    <row r="21" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
       <c r="Q21" s="2"/>
@@ -5473,8 +5716,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P22" s="2" t="n">
+    <row r="22" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
         <v>6</v>
       </c>
       <c r="Q22" s="2"/>
@@ -5483,8 +5726,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P23" s="2" t="n">
+    <row r="23" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
         <v>7</v>
       </c>
       <c r="Q23" s="2"/>
@@ -5493,8 +5736,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P24" s="2" t="n">
+    <row r="24" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
         <v>8</v>
       </c>
       <c r="Q24" s="2"/>
@@ -5503,8 +5746,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P25" s="2" t="n">
+    <row r="25" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
         <v>9</v>
       </c>
       <c r="Q25" s="2"/>
@@ -5513,8 +5756,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P26" s="2" t="n">
+    <row r="26" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
         <v>10</v>
       </c>
       <c r="Q26" s="2"/>
@@ -5530,12 +5773,7 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Q15:U15"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>